--- a/Vergleich/empirical_settings.xlsx
+++ b/Vergleich/empirical_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/Vergleich/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7218EA3D-4321-5D40-B05D-D0574F7767C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C4F30-275A-F241-B367-D8A7D84296DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="102">
   <si>
     <t>year_min</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Fossil_fuel_consumption_TWh</t>
   </si>
   <si>
-    <t>GFCF</t>
-  </si>
-  <si>
     <t>POP</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Service per capita proportion</t>
   </si>
   <si>
-    <t>GFCF_proportion</t>
-  </si>
-  <si>
     <t>IO</t>
   </si>
   <si>
@@ -215,21 +209,12 @@
     <t>IOP_{}</t>
   </si>
   <si>
-    <t>Industrial output proportion</t>
-  </si>
-  <si>
-    <t>%GDP</t>
-  </si>
-  <si>
     <t>SOPCP_{}</t>
   </si>
   <si>
     <t>SOPCP</t>
   </si>
   <si>
-    <t xml:space="preserve">Industrial output </t>
-  </si>
-  <si>
     <t>TWh</t>
   </si>
   <si>
@@ -242,9 +227,6 @@
     <t>2_y_axis</t>
   </si>
   <si>
-    <t>axis_limits</t>
-  </si>
-  <si>
     <t>IPP_USA</t>
   </si>
   <si>
@@ -321,6 +303,30 @@
   </si>
   <si>
     <t>pyworld_name_complete</t>
+  </si>
+  <si>
+    <t>Food_per_capita_proportion</t>
+  </si>
+  <si>
+    <t>fpcp</t>
+  </si>
+  <si>
+    <t>Food per capita proportion</t>
+  </si>
+  <si>
+    <t>IPP</t>
+  </si>
+  <si>
+    <t>IPP_proportion</t>
+  </si>
+  <si>
+    <t>IO IPP USA</t>
+  </si>
+  <si>
+    <t>IO IPP USA proportion</t>
+  </si>
+  <si>
+    <t>smooth</t>
   </si>
 </sst>
 </file>
@@ -730,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,14 +752,14 @@
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -765,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -780,16 +786,16 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -803,30 +809,33 @@
         <v>2021</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -841,30 +850,33 @@
         <v>2020</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
       <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -879,30 +891,33 @@
         <v>2020</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
       <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -917,101 +932,104 @@
         <v>2019</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>1979</v>
+        <v>1962</v>
       </c>
       <c r="C6">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B7">
-        <v>1959</v>
+        <v>1979</v>
       </c>
       <c r="C7">
         <v>2021</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1019,384 +1037,458 @@
       <c r="L7" t="b">
         <v>1</v>
       </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C8">
         <v>2021</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C10">
         <v>2021</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>1970</v>
+        <v>1991</v>
       </c>
       <c r="C11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B12">
-        <v>1971</v>
+        <v>1981</v>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B13">
-        <v>1965</v>
+        <v>1982</v>
       </c>
       <c r="C13">
         <v>2021</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
         <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C14">
         <v>2021</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>1919</v>
+        <v>1966</v>
       </c>
       <c r="C15">
         <v>2021</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
         <v>45</v>
       </c>
-      <c r="I15" t="s">
-        <v>75</v>
-      </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B16">
+        <v>1961</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>1919</v>
+      </c>
+      <c r="C17">
+        <v>2021</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
         <v>1920</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>2021</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>1961</v>
-      </c>
-      <c r="C17">
-        <v>2020</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1514,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1446,151 +1538,151 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
